--- a/data/trans_bre/IP11-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP11-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-15,99%</t>
+          <t>-16,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-47,26%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-43,91%</t>
+          <t>-12,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>-36,69%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 2,27</t>
+          <t>-4,16; 2,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,85; -1,36</t>
+          <t>-3,48; 5,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 0,19</t>
+          <t>-3,44; 2,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,14</t>
+          <t>-4,7; 1,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,29; 44,82</t>
+          <t>-59,64; 75,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,29; -12,7</t>
+          <t>-30,64; 74,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,34; 5,64</t>
+          <t>-61,16; 93,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,65; 120,39</t>
+          <t>-76,21; 89,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-16,46%</t>
+          <t>-15,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>-47,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-12,5%</t>
+          <t>-43,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-36,69%</t>
+          <t>5,76%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 2,58</t>
+          <t>-4,15; 2,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 5,18</t>
+          <t>-9,85; -1,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 2,44</t>
+          <t>-7,06; 0,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 1,83</t>
+          <t>-1,95; 2,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-59,64; 75,46</t>
+          <t>-49,29; 44,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,64; 74,44</t>
+          <t>-69,29; -12,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-61,16; 93,25</t>
+          <t>-70,34; 5,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-76,21; 89,45</t>
+          <t>-52,65; 120,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP11-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP11-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-26,27%</t>
+          <t>-42,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-29,48%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-62,52%</t>
+          <t>-61,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-35,41%</t>
+          <t>-38,98%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 1,57</t>
+          <t>-6,6; 1,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 1,21</t>
+          <t>-3,77; 5,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 0,12</t>
+          <t>-4,47; 0,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 1,59</t>
+          <t>-5,24; 1,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-63,12; 34,61</t>
+          <t>-80,52; 61,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-62,59; 23,06</t>
+          <t>-43,16; 131,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-87,1; 24,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 551,03</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-16,46%</t>
+          <t>-16,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>-25,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-12,5%</t>
+          <t>-31,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-36,69%</t>
+          <t>-16,92%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 2,58</t>
+          <t>-4,3; 2,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 5,18</t>
+          <t>-6,61; 1,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 2,44</t>
+          <t>-4,24; 1,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 1,83</t>
+          <t>-3,4; 2,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,64; 75,46</t>
+          <t>-52,92; 47,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,64; 74,44</t>
+          <t>-53,49; 24,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-61,16; 93,25</t>
+          <t>-73,35; 40,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-76,21; 89,45</t>
+          <t>-79,21; 205,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,99%</t>
+          <t>-11,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-47,26%</t>
+          <t>-12,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-43,91%</t>
+          <t>-48,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>-24,72%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 2,27</t>
+          <t>-5,93; 4,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,85; -1,36</t>
+          <t>-6,8; 3,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 0,19</t>
+          <t>-7,07; 0,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,14</t>
+          <t>-4,37; 2,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,29; 44,82</t>
+          <t>-55,41; 91,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-69,29; -12,7</t>
+          <t>-61,5; 67,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-70,34; 5,64</t>
+          <t>-78,42; 10,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-52,65; 120,39</t>
+          <t>-77,05; 148,25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-19,48%</t>
+          <t>-17,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-25,55%</t>
+          <t>-47,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-39,23%</t>
+          <t>-32,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-14,85%</t>
+          <t>-0,7%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 0,81</t>
+          <t>-4,67; 2,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,91; -0,17</t>
+          <t>-11,33; -1,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,94; -0,26</t>
+          <t>-6,97; 1,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,1</t>
+          <t>-2,3; 2,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,98; 16,24</t>
+          <t>-59,45; 67,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,13; -1,12</t>
+          <t>-71,11; -12,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-60,09; -5,16</t>
+          <t>-65,67; 42,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,6; 51,84</t>
+          <t>-56,05; 175,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,25</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,5</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,15</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-19,48%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-25,55%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-39,23%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-14,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 0,63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; -0,16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,95; -0,45</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 1,09</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-43,09; 12,54</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-42,8; -1,64</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-61,34; -9,06</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-51,95; 47,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP11-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP11-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 1,58</t>
+          <t>-6,63; 1,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 5,39</t>
+          <t>-3,61; 6,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 0,7</t>
+          <t>-3,99; 0,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 1,96</t>
+          <t>-5,22; 2,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-80,52; 61,36</t>
+          <t>-80,09; 67,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,16; 131,04</t>
+          <t>-42,59; 161,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 2,06</t>
+          <t>-4,67; 2,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 1,85</t>
+          <t>-6,86; 1,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 1,1</t>
+          <t>-4,26; 1,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 2,56</t>
+          <t>-3,46; 2,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,92; 47,8</t>
+          <t>-55,93; 41,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,49; 24,39</t>
+          <t>-56,06; 17,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-73,35; 40,01</t>
+          <t>-69,76; 53,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-79,21; 205,74</t>
+          <t>-80,31; 196,57</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 4,59</t>
+          <t>-6,05; 4,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 3,72</t>
+          <t>-5,95; 3,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 0,18</t>
+          <t>-6,84; 0,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 2,32</t>
+          <t>-4,35; 2,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-55,41; 91,71</t>
+          <t>-58,45; 83,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-61,5; 67,64</t>
+          <t>-59,19; 73,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-78,42; 10,6</t>
+          <t>-76,93; 12,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-77,05; 148,25</t>
+          <t>-78,85; 134,72</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 2,58</t>
+          <t>-4,67; 2,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,33; -1,41</t>
+          <t>-11,46; -1,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 1,8</t>
+          <t>-7,74; 1,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,69</t>
+          <t>-2,5; 2,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,45; 67,36</t>
+          <t>-60,13; 68,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,11; -12,53</t>
+          <t>-71,07; -10,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,67; 42,68</t>
+          <t>-69,16; 33,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,05; 175,48</t>
+          <t>-59,98; 153,34</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,63</t>
+          <t>-3,16; 0,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,88; -0,16</t>
+          <t>-4,99; -0,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -0,45</t>
+          <t>-3,8; -0,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 1,09</t>
+          <t>-2,07; 1,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-43,09; 12,54</t>
+          <t>-41,45; 17,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,8; -1,64</t>
+          <t>-45,24; -0,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-61,34; -9,06</t>
+          <t>-59,06; -6,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-51,95; 47,28</t>
+          <t>-51,83; 45,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP11-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP11-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-38,98%</t>
+          <t>-38,96%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 1,52</t>
+          <t>-6,81; 1,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 6,16</t>
+          <t>-3,82; 5,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 0,72</t>
+          <t>-4,28; 0,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 2,0</t>
+          <t>-5,43; 1,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-80,09; 67,63</t>
+          <t>-82,72; 85,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-42,59; 161,55</t>
+          <t>-46,59; 129,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-16,92%</t>
+          <t>-23,34%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 2,04</t>
+          <t>-4,49; 2,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 1,49</t>
+          <t>-6,73; 2,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 1,37</t>
+          <t>-4,24; 1,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,26</t>
+          <t>-3,56; 2,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,93; 41,34</t>
+          <t>-54,88; 51,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,06; 17,13</t>
+          <t>-53,55; 26,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-69,76; 53,16</t>
+          <t>-71,3; 62,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-80,31; 196,57</t>
+          <t>-78,02; 207,63</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-24,72%</t>
+          <t>-23,0%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 4,28</t>
+          <t>-6,04; 4,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 3,95</t>
+          <t>-5,91; 3,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 0,19</t>
+          <t>-7,27; 0,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 2,19</t>
+          <t>-4,48; 1,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,45; 83,12</t>
+          <t>-58,42; 84,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-59,19; 73,76</t>
+          <t>-57,74; 76,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-76,93; 12,45</t>
+          <t>-80,41; 11,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-78,85; 134,72</t>
+          <t>-79,07; 113,69</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>-8,37%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 2,73</t>
+          <t>-4,42; 2,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,46; -1,49</t>
+          <t>-11,1; -1,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 1,6</t>
+          <t>-7,37; 1,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,25</t>
+          <t>-2,91; 2,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,13; 68,3</t>
+          <t>-58,56; 59,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,07; -10,31</t>
+          <t>-70,71; -14,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-69,16; 33,54</t>
+          <t>-66,37; 42,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,98; 153,34</t>
+          <t>-67,89; 134,23</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-14,85%</t>
+          <t>-18,44%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 0,89</t>
+          <t>-3,12; 0,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,99; -0,09</t>
+          <t>-4,91; -0,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,8; -0,31</t>
+          <t>-3,94; -0,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 1,05</t>
+          <t>-2,04; 1,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-41,45; 17,17</t>
+          <t>-42,98; 16,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-45,24; -0,98</t>
+          <t>-44,13; -1,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-59,06; -6,9</t>
+          <t>-60,09; -5,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-51,83; 45,95</t>
+          <t>-51,01; 46,13</t>
         </is>
       </c>
     </row>
